--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{14195559-EF7F-4E77-88EB-8B763857CEDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{28C50C6E-FD9F-4428-BF6A-2D7951278538}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,21 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
     <t xml:space="preserve">P@ssw0rd1 </t>
   </si>
   <si>
@@ -65,6 +53,18 @@
   </si>
   <si>
     <t>ncitester4@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,70 +414,70 @@
   <sheetData>
     <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{28C50C6E-FD9F-4428-BF6A-2D7951278538}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7946C957-15FA-48A5-934A-A6A824286718}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7946C957-15FA-48A5-934A-A6A824286718}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F897E06-BADE-4F3B-8D93-5DFD92DB37EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F897E06-BADE-4F3B-8D93-5DFD92DB37EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3577566-642B-4BFB-A66F-94994FCECA00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,8 +488,9 @@
     <hyperlink ref="C4" r:id="rId4" xr:uid="{31F61309-1B9C-4F0E-9BB7-599368BDB506}"/>
     <hyperlink ref="C3" r:id="rId5" xr:uid="{D846DCB4-06B1-49EA-AC34-0F8431833A85}"/>
     <hyperlink ref="D3:E4" r:id="rId6" display="P@ssw0rd1 " xr:uid="{66C18D95-056F-403A-9510-29F4FA66EE72}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{B4F3B766-DBE0-4BCA-9863-F0FA48214671}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3577566-642B-4BFB-A66F-94994FCECA00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE8D9DE6-BF9F-48E5-8692-502EBB4A32CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,8 +489,9 @@
     <hyperlink ref="C3" r:id="rId5" xr:uid="{D846DCB4-06B1-49EA-AC34-0F8431833A85}"/>
     <hyperlink ref="D3:E4" r:id="rId6" display="P@ssw0rd1 " xr:uid="{66C18D95-056F-403A-9510-29F4FA66EE72}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{B4F3B766-DBE0-4BCA-9863-F0FA48214671}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{7BC8CDB4-4BC8-4566-B2FB-6728038215E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE8D9DE6-BF9F-48E5-8692-502EBB4A32CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4C8F29E0-965D-4418-8A27-356941DDBC68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Password</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>FirstName1</t>
+  </si>
+  <si>
+    <t>LastName1</t>
+  </si>
+  <si>
+    <t>ncitester1@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -401,18 +410,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -429,7 +438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -446,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -463,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -477,6 +486,23 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -490,8 +516,11 @@
     <hyperlink ref="D3:E4" r:id="rId6" display="P@ssw0rd1 " xr:uid="{66C18D95-056F-403A-9510-29F4FA66EE72}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{B4F3B766-DBE0-4BCA-9863-F0FA48214671}"/>
     <hyperlink ref="D3" r:id="rId8" xr:uid="{7BC8CDB4-4BC8-4566-B2FB-6728038215E8}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{8BD459D2-053B-42FE-ACFA-B0CA1019BDC8}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{981E014B-D5D6-4B3C-920F-468CB871DD5E}"/>
+    <hyperlink ref="E5" r:id="rId11" xr:uid="{D9712124-0D32-4819-BBFC-8C290BD89A86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4C8F29E0-965D-4418-8A27-356941DDBC68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE1C267-3B07-400D-9DD5-C654170B6289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,33 +29,6 @@
     <t xml:space="preserve">P@ssw0rd1 </t>
   </si>
   <si>
-    <t>FirstName4</t>
-  </si>
-  <si>
-    <t>FirstName5</t>
-  </si>
-  <si>
-    <t>FirstName6</t>
-  </si>
-  <si>
-    <t>LastName4</t>
-  </si>
-  <si>
-    <t>LastName5</t>
-  </si>
-  <si>
-    <t>LastName6</t>
-  </si>
-  <si>
-    <t>ncitester6@nih.gov</t>
-  </si>
-  <si>
-    <t>ncitester5@nih.gov</t>
-  </si>
-  <si>
-    <t>ncitester4@nih.gov</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -67,13 +41,40 @@
     <t>ConfirmPassword</t>
   </si>
   <si>
-    <t>FirstName1</t>
-  </si>
-  <si>
-    <t>LastName1</t>
-  </si>
-  <si>
-    <t>ncitester1@nih.gov</t>
+    <t>FirstName51</t>
+  </si>
+  <si>
+    <t>LastName51</t>
+  </si>
+  <si>
+    <t>ncitester51@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName52</t>
+  </si>
+  <si>
+    <t>LastName52</t>
+  </si>
+  <si>
+    <t>ncitester52@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName53</t>
+  </si>
+  <si>
+    <t>LastName53</t>
+  </si>
+  <si>
+    <t>ncitester53@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName54</t>
+  </si>
+  <si>
+    <t>LastName54</t>
+  </si>
+  <si>
+    <t>ncitester54@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -413,83 +414,88 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>

--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE1C267-3B07-400D-9DD5-C654170B6289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ABE399-25DE-4109-9348-205CDDE58EFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P@ssw0rd1 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -36,9 +29,6 @@
   </si>
   <si>
     <t>EmailAddress</t>
-  </si>
-  <si>
-    <t>ConfirmPassword</t>
   </si>
   <si>
     <t>FirstName51</t>
@@ -411,122 +401,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="36.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{5AB3F1A9-EE38-4990-9D5C-D0DAB7A630CA}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{ACB01A7F-99A7-45DB-80C3-0486E1AF1DE7}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{9A521F62-FE29-4D32-9CF1-61D30614E3B2}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{31F61309-1B9C-4F0E-9BB7-599368BDB506}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{D846DCB4-06B1-49EA-AC34-0F8431833A85}"/>
-    <hyperlink ref="D3:E4" r:id="rId6" display="P@ssw0rd1 " xr:uid="{66C18D95-056F-403A-9510-29F4FA66EE72}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{B4F3B766-DBE0-4BCA-9863-F0FA48214671}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{7BC8CDB4-4BC8-4566-B2FB-6728038215E8}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{8BD459D2-053B-42FE-ACFA-B0CA1019BDC8}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{981E014B-D5D6-4B3C-920F-468CB871DD5E}"/>
-    <hyperlink ref="E5" r:id="rId11" xr:uid="{D9712124-0D32-4819-BBFC-8C290BD89A86}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{31F61309-1B9C-4F0E-9BB7-599368BDB506}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{D846DCB4-06B1-49EA-AC34-0F8431833A85}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{8BD459D2-053B-42FE-ACFA-B0CA1019BDC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE1C267-3B07-400D-9DD5-C654170B6289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295617D3-9133-442B-B912-7B03D6A00F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Password</t>
   </si>
@@ -75,6 +74,9 @@
   </si>
   <si>
     <t>ncitester54@nih.gov</t>
+  </si>
+  <si>
+    <t>P@ssw0rd1</t>
   </si>
 </sst>
 </file>
@@ -119,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -130,6 +132,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,13 +455,13 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -468,13 +472,13 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -485,13 +489,13 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -502,31 +506,27 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5AB3F1A9-EE38-4990-9D5C-D0DAB7A630CA}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{ACB01A7F-99A7-45DB-80C3-0486E1AF1DE7}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{9A521F62-FE29-4D32-9CF1-61D30614E3B2}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{31F61309-1B9C-4F0E-9BB7-599368BDB506}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{D846DCB4-06B1-49EA-AC34-0F8431833A85}"/>
-    <hyperlink ref="D3:E4" r:id="rId6" display="P@ssw0rd1 " xr:uid="{66C18D95-056F-403A-9510-29F4FA66EE72}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{B4F3B766-DBE0-4BCA-9863-F0FA48214671}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{7BC8CDB4-4BC8-4566-B2FB-6728038215E8}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{8BD459D2-053B-42FE-ACFA-B0CA1019BDC8}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{981E014B-D5D6-4B3C-920F-468CB871DD5E}"/>
-    <hyperlink ref="E5" r:id="rId11" xr:uid="{D9712124-0D32-4819-BBFC-8C290BD89A86}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E553E268-6E17-4DEC-A502-FA081C1A58A3}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{972F5FF6-9C97-4719-91E5-E6C4650B33C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4C8F29E0-965D-4418-8A27-356941DDBC68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A816BCB-8EE5-4CA2-8C9A-23F764254C21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,12 @@
     <t xml:space="preserve">P@ssw0rd1 </t>
   </si>
   <si>
-    <t>FirstName4</t>
-  </si>
-  <si>
     <t>FirstName5</t>
   </si>
   <si>
     <t>FirstName6</t>
   </si>
   <si>
-    <t>LastName4</t>
-  </si>
-  <si>
     <t>LastName5</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>ncitester5@nih.gov</t>
   </si>
   <si>
-    <t>ncitester4@nih.gov</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -74,6 +65,15 @@
   </si>
   <si>
     <t>ncitester1@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName45</t>
+  </si>
+  <si>
+    <t>LastName45</t>
+  </si>
+  <si>
+    <t>ncitester45@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -413,91 +413,96 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>

--- a/DataOne-Registration.Simran.xlsx
+++ b/DataOne-Registration.Simran.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A816BCB-8EE5-4CA2-8C9A-23F764254C21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1947942E-2108-4552-A09D-BEE63A784B5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,13 +67,13 @@
     <t>ncitester1@nih.gov</t>
   </si>
   <si>
-    <t>FirstName45</t>
-  </si>
-  <si>
-    <t>LastName45</t>
-  </si>
-  <si>
-    <t>ncitester45@nih.gov</t>
+    <t>ncitester46@nih.gov</t>
+  </si>
+  <si>
+    <t>LastName46</t>
+  </si>
+  <si>
+    <t>FirstName46</t>
   </si>
 </sst>
 </file>
@@ -413,20 +413,20 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -443,15 +443,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
